--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3769.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3769.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.385697677732221</v>
+        <v>1.112636208534241</v>
       </c>
       <c r="B1">
-        <v>2.705554375648681</v>
+        <v>1.041699409484863</v>
       </c>
       <c r="C1">
-        <v>3.440461731548286</v>
+        <v>5.165627956390381</v>
       </c>
       <c r="D1">
-        <v>4.031372383518387</v>
+        <v>1.62781822681427</v>
       </c>
       <c r="E1">
-        <v>1.427142469646926</v>
+        <v>0.9435285329818726</v>
       </c>
     </row>
   </sheetData>
